--- a/biology/Zoologie/Blennie_paon/Blennie_paon.xlsx
+++ b/biology/Zoologie/Blennie_paon/Blennie_paon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blennie paon (Salaria pavo) est une espèce de poissons de la famille des Blenniidae qui se rencontre dans l'Atlantique Est, des côtes françaises jusqu'à celles du Maroc mais également en Méditerranée, en mer Noire et dans le canal de Suez.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Blennie paon mesure jusqu'à 13 cm.
 			Le mâle
